--- a/invoice.xlsx
+++ b/invoice.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,10 +19,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -90,6 +90,11 @@
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <sz val="8"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -337,7 +342,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -373,16 +378,6 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -402,14 +397,11 @@
       <alignment vertical="top"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -478,10 +470,40 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,29 +600,36 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
+  <twoCellAnchor editAs="oneCell">
     <from>
       <col>1</col>
-      <colOff>-1</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
+      <colOff>19049</colOff>
+      <row>0</row>
+      <rowOff>95250</rowOff>
     </from>
-    <ext cx="2569029" cy="740229"/>
+    <to>
+      <col>3</col>
+      <colOff>133349</colOff>
+      <row>3</row>
+      <rowOff>57150</rowOff>
+    </to>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
+        <cNvPr id="8" name="Picture 7"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
         <a:xfrm>
-          <a:off x="620485" y="446314"/>
-          <a:ext cx="2569029" cy="740229"/>
+          <a:off x="600074" y="95250"/>
+          <a:ext cx="3248025" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -611,7 +640,7 @@
       </spPr>
     </pic>
     <clientData/>
-  </oneCellAnchor>
+  </twoCellAnchor>
 </wsDr>
 </file>
 
@@ -848,31 +877,30 @@
   </sheetPr>
   <dimension ref="B1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="40.6640625" customWidth="1" style="32" min="2" max="2"/>
-    <col width="8.6640625" customWidth="1" style="32" min="3" max="3"/>
-    <col width="13.6640625" customWidth="1" style="32" min="4" max="4"/>
-    <col width="25.6640625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="21.109375" customWidth="1" style="32" min="6" max="6"/>
-    <col width="13.44140625" bestFit="1" customWidth="1" style="32" min="7" max="7"/>
-    <col width="7" customWidth="1" style="32" min="8" max="8"/>
+    <col width="40.6640625" customWidth="1" style="27" min="2" max="2"/>
+    <col width="8.6640625" customWidth="1" style="27" min="3" max="3"/>
+    <col width="13.6640625" customWidth="1" style="27" min="4" max="4"/>
+    <col width="25.6640625" customWidth="1" style="27" min="5" max="5"/>
+    <col width="21.109375" customWidth="1" style="27" min="6" max="6"/>
+    <col width="13.44140625" bestFit="1" customWidth="1" style="27" min="7" max="7"/>
+    <col width="7" customWidth="1" style="27" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" s="32">
-      <c r="B1" s="45" t="n"/>
-      <c r="C1" s="34" t="n"/>
-      <c r="D1" s="34" t="n"/>
-    </row>
-    <row r="2" ht="35.4" customHeight="1" s="32">
-      <c r="B2" s="48" t="n"/>
+    <row r="1" ht="35.25" customHeight="1" s="27">
+      <c r="B1" s="40" t="n"/>
+      <c r="C1" s="29" t="n"/>
+      <c r="D1" s="29" t="n"/>
+    </row>
+    <row r="2" ht="35.4" customHeight="1" s="27">
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
-      <c r="E2" s="44" t="inlineStr">
+      <c r="E2" s="39" t="inlineStr">
         <is>
           <t>INVOICE</t>
         </is>
@@ -896,7 +924,7 @@
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
-      <c r="F6" s="15" t="n"/>
+      <c r="F6" s="11" t="n"/>
     </row>
     <row r="7">
       <c r="C7" s="3" t="n"/>
@@ -904,7 +932,7 @@
       <c r="E7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>429 Mahando Street</t>
         </is>
@@ -916,14 +944,14 @@
           <t>DATE</t>
         </is>
       </c>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>2025-01-06 17:24:59</t>
+      <c r="F8" s="54" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Masaki, Dar es Salaam</t>
         </is>
@@ -937,12 +965,12 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ITFL/2025/5</t>
+          <t>BOT/2025/1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>022 2601772/3</t>
         </is>
@@ -964,7 +992,7 @@
       <c r="F11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="16" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>TIN NO: 123-013-255</t>
         </is>
@@ -975,7 +1003,7 @@
       <c r="F12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>VRN: 40-043778-G</t>
         </is>
@@ -997,14 +1025,14 @@
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="1" t="n"/>
     </row>
-    <row r="16" ht="15" customHeight="1" s="32" thickBot="1">
+    <row r="16" ht="15" customHeight="1" s="27" thickBot="1">
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="3" t="n"/>
       <c r="F16" s="1" t="n"/>
     </row>
-    <row r="17" ht="15.6" customHeight="1" s="32" thickBot="1">
-      <c r="B17" s="36" t="inlineStr">
+    <row r="17" ht="15.6" customHeight="1" s="27" thickBot="1">
+      <c r="B17" s="31" t="inlineStr">
         <is>
           <t>BILL TO</t>
         </is>
@@ -1015,9 +1043,9 @@
       <c r="F17" s="1" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="inlineStr">
-        <is>
-          <t>ABDUL JOHN BANDAWE</t>
+      <c r="B18" s="12" t="inlineStr">
+        <is>
+          <t>ERICK DICKSON MAKILAGI</t>
         </is>
       </c>
       <c r="C18" s="3" t="n"/>
@@ -1026,7 +1054,7 @@
       <c r="F18" s="1" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>Ilala</t>
         </is>
@@ -1037,7 +1065,7 @@
       <c r="F19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="16" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Dar es Salaam</t>
         </is>
@@ -1048,7 +1076,7 @@
       <c r="F20" s="1" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>TIN : 104-945-759</t>
         </is>
@@ -1079,172 +1107,176 @@
     <row r="24">
       <c r="F24" s="1" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1" s="32" thickBot="1">
-      <c r="B25" s="28" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="27" thickBot="1">
+      <c r="B25" s="23" t="inlineStr">
         <is>
           <t>Gross Consideration</t>
         </is>
       </c>
-      <c r="C25" s="29" t="n"/>
-      <c r="D25" s="29" t="n"/>
-      <c r="E25" s="30" t="n">
-        <v>1656.64</v>
+      <c r="C25" s="24" t="n"/>
+      <c r="D25" s="24" t="n"/>
+      <c r="E25" s="48" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
       </c>
       <c r="F25" s="1" t="n"/>
     </row>
-    <row r="26" ht="15.6" customHeight="1" s="32" thickBot="1">
-      <c r="B26" s="36" t="inlineStr">
+    <row r="26" ht="15.6" customHeight="1" s="27" thickBot="1">
+      <c r="B26" s="31" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="37" t="n"/>
-      <c r="E26" s="38" t="n"/>
-      <c r="F26" s="23" t="inlineStr">
+      <c r="C26" s="32" t="n"/>
+      <c r="D26" s="32" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="19" t="inlineStr">
         <is>
           <t>AMOUNT</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="16.8" customHeight="1" s="32">
-      <c r="B27" s="33" t="inlineStr">
+    <row r="27" ht="16.8" customHeight="1" s="27">
+      <c r="B27" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">Brokerage Commission - 0.80% </t>
         </is>
       </c>
-      <c r="C27" s="34" t="n"/>
-      <c r="D27" s="34" t="n"/>
-      <c r="E27" s="35" t="n"/>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>1360</t>
+      <c r="C27" s="29" t="n"/>
+      <c r="D27" s="29" t="n"/>
+      <c r="E27" s="30" t="n"/>
+      <c r="F27" s="49" t="inlineStr">
+        <is>
+          <t>24,800.00</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="33" t="inlineStr">
+      <c r="B28" s="28" t="inlineStr">
         <is>
           <t>DSE Transaction Fee</t>
         </is>
       </c>
-      <c r="C28" s="34" t="n"/>
-      <c r="D28" s="34" t="n"/>
-      <c r="E28" s="35" t="n"/>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>112</t>
+      <c r="C28" s="29" t="n"/>
+      <c r="D28" s="29" t="n"/>
+      <c r="E28" s="30" t="n"/>
+      <c r="F28" s="49" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="33" t="inlineStr">
+      <c r="B29" s="28" t="inlineStr">
         <is>
           <t>CMSA Transaction Fee</t>
         </is>
       </c>
-      <c r="C29" s="34" t="n"/>
-      <c r="D29" s="34" t="n"/>
-      <c r="E29" s="35" t="n"/>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>112</t>
+      <c r="C29" s="29" t="n"/>
+      <c r="D29" s="29" t="n"/>
+      <c r="E29" s="30" t="n"/>
+      <c r="F29" s="49" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="33" t="inlineStr">
+      <c r="B30" s="28" t="inlineStr">
         <is>
           <t>CDS Fee (VAT Inclusive)</t>
         </is>
       </c>
-      <c r="C30" s="34" t="n"/>
-      <c r="D30" s="34" t="n"/>
-      <c r="E30" s="35" t="n"/>
-      <c r="F30" s="11" t="inlineStr">
-        <is>
-          <t>56.64</t>
+      <c r="C30" s="29" t="n"/>
+      <c r="D30" s="29" t="n"/>
+      <c r="E30" s="30" t="n"/>
+      <c r="F30" s="49" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="33" t="inlineStr">
+      <c r="B31" s="28" t="inlineStr">
         <is>
           <t>Fidelity Fee</t>
         </is>
       </c>
-      <c r="C31" s="34" t="n"/>
-      <c r="D31" s="34" t="n"/>
-      <c r="E31" s="35" t="n"/>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="C31" s="29" t="n"/>
+      <c r="D31" s="29" t="n"/>
+      <c r="E31" s="30" t="n"/>
+      <c r="F31" s="49" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="46" t="n"/>
-      <c r="C32" s="34" t="n"/>
-      <c r="D32" s="34" t="n"/>
+      <c r="B32" s="41" t="n"/>
+      <c r="C32" s="29" t="n"/>
+      <c r="D32" s="29" t="n"/>
       <c r="E32" s="6" t="n"/>
-      <c r="F32" s="11" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="32" thickBot="1">
-      <c r="B33" s="39" t="n"/>
-      <c r="C33" s="40" t="n"/>
-      <c r="D33" s="40" t="n"/>
+      <c r="F32" s="43" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="27" thickBot="1">
+      <c r="B33" s="34" t="n"/>
+      <c r="C33" s="35" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="10" t="n"/>
-      <c r="F33" s="12" t="n"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="32" thickBot="1">
+      <c r="F33" s="46" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="27" thickBot="1">
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
-      <c r="D34" s="25" t="inlineStr">
+      <c r="D34" s="20" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="E34" s="38" t="n"/>
-      <c r="F34" s="14" t="n">
-        <v>1656.64</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="32" thickBot="1">
+      <c r="E34" s="33" t="n"/>
+      <c r="F34" s="50" t="inlineStr">
+        <is>
+          <t>24,800.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="27" thickBot="1">
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
-      <c r="D35" s="25" t="inlineStr">
+      <c r="D35" s="20" t="inlineStr">
         <is>
           <t>18% Vat</t>
         </is>
       </c>
-      <c r="E35" s="38" t="n"/>
-      <c r="F35" s="13" t="inlineStr">
-        <is>
-          <t>244.8</t>
-        </is>
-      </c>
-      <c r="G35" s="49" t="n"/>
-    </row>
-    <row r="36" ht="5.4" customHeight="1" s="32" thickBot="1">
+      <c r="E35" s="33" t="n"/>
+      <c r="F35" s="51" t="inlineStr">
+        <is>
+          <t>4,464.00</t>
+        </is>
+      </c>
+      <c r="G35" s="52" t="n"/>
+    </row>
+    <row r="36" ht="5.4" customHeight="1" s="27" thickBot="1">
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
-      <c r="D36" s="25" t="n"/>
-      <c r="E36" s="38" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="49" t="n"/>
-    </row>
-    <row r="37" ht="15.6" customHeight="1" s="32" thickBot="1">
+      <c r="D36" s="20" t="n"/>
+      <c r="E36" s="33" t="n"/>
+      <c r="F36" s="47" t="n"/>
+      <c r="G36" s="52" t="n"/>
+    </row>
+    <row r="37" ht="15.6" customHeight="1" s="27" thickBot="1">
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
+      <c r="D37" s="22" t="inlineStr">
         <is>
           <t>TOTAL Fees</t>
         </is>
       </c>
-      <c r="E37" s="38" t="n"/>
-      <c r="F37" s="24" t="inlineStr">
-        <is>
-          <t>1901.44</t>
+      <c r="E37" s="33" t="n"/>
+      <c r="F37" s="53" t="inlineStr">
+        <is>
+          <t>29,264.00</t>
         </is>
       </c>
     </row>
@@ -1252,45 +1284,45 @@
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="18" t="n"/>
-      <c r="F38" s="19" t="n"/>
+      <c r="E38" s="14" t="n"/>
+      <c r="F38" s="15" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="18" t="n"/>
-      <c r="F39" s="19" t="n"/>
+      <c r="E39" s="14" t="n"/>
+      <c r="F39" s="15" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="18" t="n"/>
-      <c r="F40" s="19" t="n"/>
+      <c r="E40" s="14" t="n"/>
+      <c r="F40" s="15" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="3" t="n"/>
       <c r="C41" s="3" t="n"/>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="18" t="n"/>
-      <c r="F41" s="19" t="n"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="32" thickBot="1">
+      <c r="E41" s="14" t="n"/>
+      <c r="F41" s="15" t="n"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="27" thickBot="1">
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="18" t="n"/>
-      <c r="F42" s="19" t="n"/>
-    </row>
-    <row r="43" ht="15.6" customHeight="1" s="32" thickBot="1">
-      <c r="B43" s="47" t="inlineStr">
+      <c r="E42" s="14" t="n"/>
+      <c r="F42" s="15" t="n"/>
+    </row>
+    <row r="43" ht="15.6" customHeight="1" s="27" thickBot="1">
+      <c r="B43" s="42" t="inlineStr">
         <is>
           <t>BANK DETAILS</t>
         </is>
       </c>
-      <c r="C43" s="37" t="n"/>
-      <c r="D43" s="38" t="n"/>
+      <c r="C43" s="32" t="n"/>
+      <c r="D43" s="33" t="n"/>
       <c r="E43" s="3" t="n"/>
     </row>
     <row r="44">
@@ -1299,7 +1331,7 @@
           <t>Account Name : iTRUST Finance Limited</t>
         </is>
       </c>
-      <c r="C44" s="20" t="n"/>
+      <c r="C44" s="16" t="n"/>
       <c r="D44" s="9" t="n"/>
       <c r="E44" s="3" t="n"/>
     </row>
@@ -1309,19 +1341,19 @@
           <t>Account Number : 011103041522</t>
         </is>
       </c>
-      <c r="C45" s="20" t="n"/>
+      <c r="C45" s="16" t="n"/>
       <c r="D45" s="9" t="n"/>
       <c r="E45" s="3" t="n"/>
       <c r="F45" s="1" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="41" t="inlineStr">
+      <c r="B46" s="36" t="inlineStr">
         <is>
           <t>NBC,NLCBTZTZ, Corporate Branch</t>
         </is>
       </c>
-      <c r="C46" s="42" t="n"/>
-      <c r="D46" s="43" t="n"/>
+      <c r="C46" s="37" t="n"/>
+      <c r="D46" s="38" t="n"/>
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="1" t="n"/>
     </row>
@@ -1366,16 +1398,16 @@
       <c r="D52" s="6" t="n"/>
       <c r="E52" s="6" t="n"/>
     </row>
-    <row r="53" ht="16.2" customHeight="1" s="32">
-      <c r="B53" s="31" t="inlineStr">
+    <row r="53" ht="16.2" customHeight="1" s="27">
+      <c r="B53" s="26" t="inlineStr">
         <is>
           <t>Thank You For Your Business!</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="20.25" customHeight="1" s="32"/>
+    <row r="54" ht="20.25" customHeight="1" s="27"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B26:E26"/>
@@ -1389,7 +1421,6 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:B31">
     <cfRule type="expression" priority="1" dxfId="0" stopIfTrue="1">
